--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\Desktop\Dissertation app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0F69E-0694-4AEA-A3E0-7F10B4B7BBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87627E8-A8E8-4F9A-9538-03FF14560D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="684" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="1485" windowWidth="21600" windowHeight="11385" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cattle" sheetId="12" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="134">
   <si>
     <t>Diarrhoea</t>
   </si>
@@ -527,49 +527,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Anae</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anrx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Atax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Const</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Diarr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dysnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dyspn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Icter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lymph</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pyrx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stare</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SV_Oedm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weak</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wght_L</t>
+    <t>ZZ_Other</t>
   </si>
 </sst>
 </file>
@@ -796,21 +754,21 @@
   <autoFilter ref="A1:P17" xr:uid="{DD024CD5-0CCD-4432-BEFE-E85D04F66F23}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{1A5A4F3C-5BAF-4EF1-925D-F00EE9223D05}" uniqueName="1" name="Disease" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{AB89EC71-3B5D-4278-A4FB-45F96A9AA5BA}" uniqueName="2" name=" Anae" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{0A0CD46A-A1BB-4B5B-A09F-499DF2061553}" uniqueName="3" name=" Anrx" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{8AD9D69D-C016-43C3-8E1F-F47354C3E551}" uniqueName="4" name=" Atax" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{E6B00E4A-AC48-4D71-81BF-059FC025F381}" uniqueName="5" name=" Const" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{5C26E6D5-1278-48FA-8A75-070ABF855F25}" uniqueName="6" name=" Diarr" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{6FE9E979-BECF-4812-B264-D0EE339FA0EE}" uniqueName="7" name=" Dysnt" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{EF209E3A-025D-48DD-B7A1-132C4FBAD432}" uniqueName="8" name=" Dyspn" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{2FEA3F3E-B715-49B0-B14B-A9BF13E81917}" uniqueName="9" name=" Icter" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{A799E4B6-9A0A-4F78-A8A8-0996EED8B048}" uniqueName="10" name=" Lymph" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{2CDF648D-0656-41DA-803B-C67B0E71C9F5}" uniqueName="11" name=" Pyrx" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{63D13E2C-34E6-44D3-9107-E574E5911482}" uniqueName="12" name=" Stare" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{3E57F9E8-A0C2-4C55-A8EB-24497C5A8218}" uniqueName="13" name=" Stunt" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{6936E9F7-8432-4B0F-A934-597818F92608}" uniqueName="14" name=" SV_Oedm" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{32BDC4C9-3F77-4047-9191-5152E039F000}" uniqueName="15" name=" Weak" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{24068BE5-2E29-42FE-8C60-9FE3F0A12292}" uniqueName="16" name=" Wght_L" queryTableFieldId="16"/>
+    <tableColumn id="2" xr3:uid="{AB89EC71-3B5D-4278-A4FB-45F96A9AA5BA}" uniqueName="2" name="Anae" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{0A0CD46A-A1BB-4B5B-A09F-499DF2061553}" uniqueName="3" name="Anrx" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{8AD9D69D-C016-43C3-8E1F-F47354C3E551}" uniqueName="4" name="Atax" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{E6B00E4A-AC48-4D71-81BF-059FC025F381}" uniqueName="5" name="Const" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{5C26E6D5-1278-48FA-8A75-070ABF855F25}" uniqueName="6" name="Diarr" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{6FE9E979-BECF-4812-B264-D0EE339FA0EE}" uniqueName="7" name="Dysnt" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{EF209E3A-025D-48DD-B7A1-132C4FBAD432}" uniqueName="8" name="Dyspn" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{2FEA3F3E-B715-49B0-B14B-A9BF13E81917}" uniqueName="9" name="Icter" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{A799E4B6-9A0A-4F78-A8A8-0996EED8B048}" uniqueName="10" name="Lymph" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{2CDF648D-0656-41DA-803B-C67B0E71C9F5}" uniqueName="11" name="Pyrx" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{63D13E2C-34E6-44D3-9107-E574E5911482}" uniqueName="12" name="Stare" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{3E57F9E8-A0C2-4C55-A8EB-24497C5A8218}" uniqueName="13" name="Stunt" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{6936E9F7-8432-4B0F-A934-597818F92608}" uniqueName="14" name="SV_Oedm" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{32BDC4C9-3F77-4047-9191-5152E039F000}" uniqueName="15" name="Weak" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{24068BE5-2E29-42FE-8C60-9FE3F0A12292}" uniqueName="16" name="Wght_L" queryTableFieldId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1139,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85C816C-F2F8-4069-80D5-E3DF17509B0E}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,49 +1127,49 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1966,7 +1924,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="B17">
         <v>0.79379999999999995</v>
@@ -2932,9 +2890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:S2"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\Desktop\Dissertation app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\PycharmProjects\dissertation-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87627E8-A8E8-4F9A-9538-03FF14560D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E233A6-6146-49FF-9DDE-C1089A999F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1485" windowWidth="21600" windowHeight="11385" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="1485" windowWidth="21600" windowHeight="11385" tabRatio="684" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cattle" sheetId="12" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85C816C-F2F8-4069-80D5-E3DF17509B0E}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -9297,13 +9297,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEAA06E-F330-4153-A681-769C8DA29C30}">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView topLeftCell="J10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P23" sqref="P23:AK39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\PycharmProjects\dissertation-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1774A4D-48CB-424C-B4B6-890915FC037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF7DEF3-DEAA-43D7-A4B4-C9F72373235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="1290" windowWidth="23805" windowHeight="14175" tabRatio="684" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cattle" sheetId="12" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="201">
   <si>
     <t>Diarrhoea</t>
   </si>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>Ascaris_foals</t>
-  </si>
-  <si>
-    <t>Babisiosis</t>
   </si>
   <si>
     <t>GI_non-infectious_colic</t>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>0.79379999999999995</v>
@@ -2184,7 +2181,7 @@
         <v>42</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2192,10 +2189,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2214,10 +2211,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,10 +2222,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2280,10 +2277,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,7 +2291,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2335,10 +2332,10 @@
         <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,10 +2343,10 @@
         <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2402,7 +2399,7 @@
         <v>42</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2432,10 +2429,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2443,10 +2440,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,7 +2454,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2479,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2498,10 +2495,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,7 +2509,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,7 +2531,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,7 +2542,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2553,10 +2550,10 @@
         <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2564,10 +2561,10 @@
         <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2617,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2631,7 +2628,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2639,10 +2636,10 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,7 +2661,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2675,7 +2672,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2686,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2697,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2708,7 +2705,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2719,7 +2716,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2730,7 +2727,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2741,7 +2738,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2752,7 +2749,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2760,10 +2757,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2774,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,10 +2790,10 @@
         <v>57</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,7 +2804,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,7 +2815,7 @@
         <v>76</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2853,7 +2850,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,10 +2865,10 @@
         <v>91</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2882,7 +2879,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,10 +2887,10 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2901,10 +2898,10 @@
         <v>92</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2923,10 +2920,10 @@
         <v>93</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2934,10 +2931,10 @@
         <v>94</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2956,10 +2953,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2970,7 +2967,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2981,7 +2978,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2989,10 +2986,10 @@
         <v>96</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3000,21 +2997,21 @@
         <v>97</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3025,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,7 +3033,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3058,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3086,10 +3083,10 @@
         <v>91</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,7 +3097,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,10 +3105,10 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3119,10 +3116,10 @@
         <v>92</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3141,10 +3138,10 @@
         <v>93</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3152,10 +3149,10 @@
         <v>94</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3174,10 +3171,10 @@
         <v>95</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,7 +3185,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3207,10 +3204,10 @@
         <v>96</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3218,21 +3215,21 @@
         <v>97</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3254,7 +3251,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3265,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3276,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3288,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B79A8A-1D7B-4FD1-8C3C-2C5F3A1811C5}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,7 +3300,7 @@
         <v>98</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3311,7 +3308,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +3316,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3324,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3335,7 +3332,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +3340,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,7 +3348,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,7 +3356,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3364,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3388,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3396,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3407,7 +3404,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,31 +3412,31 @@
         <v>20</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3447,15 +3444,15 @@
         <v>33</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3463,7 +3460,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3471,7 +3468,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3479,7 +3476,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3487,31 +3484,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,7 +3516,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,7 +3524,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,7 +3532,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3543,7 +3540,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3551,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" s="7"/>
     </row>
@@ -3560,7 +3557,7 @@
         <v>80</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,7 +3565,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3576,7 +3573,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3584,7 +3581,7 @@
         <v>81</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3592,39 +3589,39 @@
         <v>26</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,7 +3629,7 @@
         <v>82</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3640,23 +3637,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3661,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3672,7 +3669,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3680,7 +3677,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7495,7 +7492,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8726,7 +8723,7 @@
         <v>97</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>55</v>
@@ -8920,7 +8917,7 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15">
         <v>5.6250000000000001E-2</v>
@@ -8979,7 +8976,7 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="15">
         <v>0.91249999999999998</v>
@@ -9038,7 +9035,7 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="15">
         <v>0.58750000000000002</v>
@@ -9097,7 +9094,7 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="15">
         <v>5.6250000000000001E-2</v>
@@ -9156,7 +9153,7 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="15">
         <v>5.6250000000000001E-2</v>
@@ -9215,7 +9212,7 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="15">
         <v>2.5000000000000001E-2</v>
@@ -9274,7 +9271,7 @@
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="15">
         <v>2.5000000000000001E-2</v>
@@ -9333,7 +9330,7 @@
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="15">
         <v>2.5000000000000001E-2</v>
@@ -9451,7 +9448,7 @@
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="15">
         <v>2.5000000000000001E-2</v>
@@ -9510,7 +9507,7 @@
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="15">
         <v>2.5000000000000001E-2</v>
@@ -9569,7 +9566,7 @@
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="15">
         <v>2.5000000000000001E-2</v>
@@ -9628,7 +9625,7 @@
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="15">
         <v>2.5000000000000001E-2</v>
@@ -9687,7 +9684,7 @@
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="15">
         <v>2.5000000000000001E-2</v>
@@ -9746,7 +9743,7 @@
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="15">
         <v>5.6250000000000001E-2</v>
@@ -9985,7 +9982,7 @@
         <v>97</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>55</v>
@@ -10120,7 +10117,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9">
         <v>6.6666666666666666E-2</v>
@@ -10179,7 +10176,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="9">
         <v>0.61875000000000002</v>
@@ -10238,7 +10235,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="9">
         <v>0.5</v>
@@ -10297,7 +10294,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="9">
         <v>5.6250000000000001E-2</v>
@@ -10356,7 +10353,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10415,7 +10412,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10533,7 +10530,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10651,7 +10648,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10710,7 +10707,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10769,7 +10766,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10828,7 +10825,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="9">
         <v>5.6250000000000001E-2</v>
@@ -11013,8 +11010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEAA06E-F330-4153-A681-769C8DA29C30}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="A34:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11032,7 +11029,7 @@
         <v>42</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11040,10 +11037,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11054,7 +11051,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11062,10 +11059,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11076,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11087,7 +11084,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11098,7 +11095,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11106,10 +11103,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11120,7 +11117,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11131,7 +11128,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11142,7 +11139,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11150,10 +11147,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11161,10 +11158,10 @@
         <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11175,7 +11172,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11186,7 +11183,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11194,10 +11191,10 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11208,7 +11205,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -11219,7 +11216,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -11230,7 +11227,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11241,7 +11238,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -11252,7 +11249,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -11263,7 +11260,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -11274,7 +11271,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -11285,7 +11282,7 @@
         <v>74</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -11296,7 +11293,7 @@
         <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11307,7 +11304,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -11315,10 +11312,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -11326,10 +11323,10 @@
         <v>92</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -11337,10 +11334,10 @@
         <v>93</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -11348,10 +11345,10 @@
         <v>94</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -11359,10 +11356,10 @@
         <v>95</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -11370,10 +11367,10 @@
         <v>96</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -11381,21 +11378,21 @@
         <v>97</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -11437,7 +11434,7 @@
         <v>42</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11445,10 +11442,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11459,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11467,10 +11464,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11481,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11492,7 +11489,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11503,7 +11500,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11511,10 +11508,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11525,7 +11522,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11536,7 +11533,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11547,7 +11544,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11555,10 +11552,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11566,10 +11563,10 @@
         <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11580,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11591,7 +11588,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\PycharmProjects\dissertation-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF7DEF3-DEAA-43D7-A4B4-C9F72373235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB8E930-7EAA-47EE-ABCB-56290C8DCF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30135" yWindow="1290" windowWidth="23805" windowHeight="14175" tabRatio="684" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cattle" sheetId="12" r:id="rId1"/>
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5241CE2-746E-4D41-B8AB-B98FD964D1A9}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,7 +3286,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,7 +3696,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11010,8 +11010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEAA06E-F330-4153-A681-769C8DA29C30}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\PycharmProjects\dissertation-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB8E930-7EAA-47EE-ABCB-56290C8DCF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E6676-303D-46D4-A7B0-5C568A04F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cattle" sheetId="12" r:id="rId1"/>
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5241CE2-746E-4D41-B8AB-B98FD964D1A9}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B79A8A-1D7B-4FD1-8C3C-2C5F3A1811C5}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>178</v>
@@ -3696,7 +3696,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10">
         <v>2.5000000000000001E-2</v>
@@ -4602,7 +4602,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>2.5000000000000001E-2</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\PycharmProjects\dissertation-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E6676-303D-46D4-A7B0-5C568A04F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC2445-4921-4707-86C8-04C1CAAC3A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cattle" sheetId="12" r:id="rId1"/>
     <sheet name="Sheep" sheetId="5" r:id="rId2"/>
     <sheet name="Goat" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheep vs Goat" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Sheep vs Goat" sheetId="7" r:id="rId4"/>
     <sheet name="Camel" sheetId="14" r:id="rId5"/>
     <sheet name="Horse" sheetId="13" r:id="rId6"/>
     <sheet name="Donkey" sheetId="10" r:id="rId7"/>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,7 +3285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B79A8A-1D7B-4FD1-8C3C-2C5F3A1811C5}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -5445,10 +5445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7476,6 +7476,57 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V28">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\PycharmProjects\dissertation-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC2445-4921-4707-86C8-04C1CAAC3A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B481939C-D02C-4AB1-9AA5-FBD752BC6195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cattle" sheetId="12" r:id="rId1"/>
     <sheet name="Sheep" sheetId="5" r:id="rId2"/>
     <sheet name="Goat" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheep vs Goat" sheetId="7" r:id="rId4"/>
-    <sheet name="Camel" sheetId="14" r:id="rId5"/>
-    <sheet name="Horse" sheetId="13" r:id="rId6"/>
-    <sheet name="Donkey" sheetId="10" r:id="rId7"/>
-    <sheet name="Sign_Abbr" sheetId="11" r:id="rId8"/>
-    <sheet name="Cattle_Abbr" sheetId="15" r:id="rId9"/>
-    <sheet name="Sheep_Abbr" sheetId="16" r:id="rId10"/>
-    <sheet name="Goat_Abbr" sheetId="17" r:id="rId11"/>
-    <sheet name="Camel_Abbr" sheetId="18" r:id="rId12"/>
-    <sheet name="Horse_Abbr" sheetId="19" r:id="rId13"/>
-    <sheet name="Donkey_Abbr" sheetId="20" r:id="rId14"/>
-    <sheet name="Disease_Codes" sheetId="21" r:id="rId15"/>
+    <sheet name="Camel" sheetId="14" r:id="rId4"/>
+    <sheet name="Horse" sheetId="13" r:id="rId5"/>
+    <sheet name="Donkey" sheetId="10" r:id="rId6"/>
+    <sheet name="Sign_Abbr" sheetId="11" r:id="rId7"/>
+    <sheet name="Cattle_Abbr" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheep_Abbr" sheetId="16" r:id="rId9"/>
+    <sheet name="Goat_Abbr" sheetId="17" r:id="rId10"/>
+    <sheet name="Camel_Abbr" sheetId="18" r:id="rId11"/>
+    <sheet name="Horse_Abbr" sheetId="19" r:id="rId12"/>
+    <sheet name="Donkey_Abbr" sheetId="20" r:id="rId13"/>
+    <sheet name="Disease_Codes" sheetId="21" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Cattle'!$A$1:$P$17</definedName>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="189">
   <si>
     <t>Diarrhoea</t>
   </si>
@@ -96,9 +95,6 @@
     <t>Disease</t>
   </si>
   <si>
-    <t>Sheep</t>
-  </si>
-  <si>
     <t>Brucellosis</t>
   </si>
   <si>
@@ -147,9 +143,6 @@
     <t>Tuberculosis</t>
   </si>
   <si>
-    <t>Goat</t>
-  </si>
-  <si>
     <t>CCPP</t>
   </si>
   <si>
@@ -160,9 +153,6 @@
   </si>
   <si>
     <t>Haemonchosis</t>
-  </si>
-  <si>
-    <t>Hypoclcemia / Pregnancy tox.</t>
   </si>
   <si>
     <t>Mange mite</t>
@@ -271,53 +261,6 @@
     <t>Oc_Nas</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Normally weakness and weight loss are correlated?</t>
-  </si>
-  <si>
-    <t>Normally weakness and weight loss are correlated? (Same seen in sheep)</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>presentation to Tariku/Sami close to the time of the</t>
-  </si>
-  <si>
-    <t>workshop but none of them seemed to be of</t>
-  </si>
-  <si>
-    <t>any great concern from their point of view.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - I reported many of these large differences in</t>
-    </r>
-  </si>
-  <si>
     <t>Congested mm</t>
   </si>
   <si>
@@ -722,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,39 +731,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -835,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -857,11 +779,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1305,54 +1223,54 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2.5000000000000001E-2</v>
@@ -1402,7 +1320,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.94379999999999997</v>
@@ -1452,7 +1370,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>5.6300000000000003E-2</v>
@@ -1502,7 +1420,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>8.7499999999999994E-2</v>
@@ -1552,7 +1470,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0.1188</v>
@@ -1602,7 +1520,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0.32500000000000001</v>
@@ -1652,7 +1570,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0.79379999999999995</v>
@@ -1702,7 +1620,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0.26390000000000002</v>
@@ -1752,7 +1670,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0.18609999999999999</v>
@@ -1802,7 +1720,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0.35560000000000003</v>
@@ -1852,7 +1770,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>5.6300000000000003E-2</v>
@@ -1902,7 +1820,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0.70630000000000004</v>
@@ -1952,7 +1870,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>2.5000000000000001E-2</v>
@@ -2002,7 +1920,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0.91249999999999998</v>
@@ -2052,7 +1970,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0.20630000000000001</v>
@@ -2102,7 +2020,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>0.79379999999999995</v>
@@ -2159,224 +2077,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5241CE2-746E-4D41-B8AB-B98FD964D1A9}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA7D2C5-E0CE-4B26-883B-6D677D96F7C8}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2393,200 +2093,200 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F1F8C3-67C6-456B-B9B9-08739100F20C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -2611,233 +2311,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0675858-75CA-493B-A666-B2676B7C35A6}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2862,200 +2562,200 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>119</v>
+        <v>79</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>121</v>
+        <v>81</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>122</v>
+        <v>82</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>123</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D03E526-7A6D-4BF8-BFE1-A9C64AB167D2}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3080,200 +2780,200 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>119</v>
+        <v>79</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>121</v>
+        <v>81</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>122</v>
+        <v>82</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>123</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B79A8A-1D7B-4FD1-8C3C-2C5F3A1811C5}">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -3297,387 +2997,387 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>41</v>
+      <c r="A43" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3710,64 +3410,64 @@
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="I1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="K1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="L1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="M1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="O1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="P1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="S1" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10">
         <v>2.5000000000000001E-2</v>
@@ -3826,7 +3526,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="10">
         <v>2.5000000000000001E-2</v>
@@ -3885,7 +3585,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10">
         <v>5.6250000000000001E-2</v>
@@ -3944,7 +3644,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10">
         <v>0.64</v>
@@ -4003,7 +3703,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10">
         <v>0.92500000000000004</v>
@@ -4062,7 +3762,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B7" s="10">
         <v>2.5000000000000001E-2</v>
@@ -4121,7 +3821,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="10">
         <v>0.40500000000000003</v>
@@ -4180,7 +3880,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10">
         <v>5.6250000000000001E-2</v>
@@ -4239,7 +3939,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="10">
         <v>2.5000000000000001E-2</v>
@@ -4298,7 +3998,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="10">
         <v>7.4999999999999997E-2</v>
@@ -4357,7 +4057,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="10">
         <v>0.12</v>
@@ -4416,7 +4116,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="10">
         <v>0.12</v>
@@ -4475,7 +4175,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="10">
         <v>0.5</v>
@@ -4534,7 +4234,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="10">
         <v>0.92500000000000004</v>
@@ -4616,63 +4316,63 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>5.6250000000000001E-2</v>
@@ -4731,7 +4431,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0.11874999999999999</v>
@@ -4790,7 +4490,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>2.5000000000000001E-2</v>
@@ -4849,7 +4549,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>5.6250000000000001E-2</v>
@@ -4908,7 +4608,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>2.5000000000000001E-2</v>
@@ -4967,7 +4667,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0.17499999999999999</v>
@@ -5026,7 +4726,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0.17499999999999999</v>
@@ -5085,7 +4785,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>2.5000000000000001E-2</v>
@@ -5144,7 +4844,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>5.6250000000000001E-2</v>
@@ -5203,7 +4903,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0.17499999999999999</v>
@@ -5262,7 +4962,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0.17499999999999999</v>
@@ -5321,7 +5021,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>0.32500000000000001</v>
@@ -5380,7 +5080,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>0.91249999999999998</v>
@@ -5444,2106 +5144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.7109375" style="3" customWidth="1"/>
-    <col min="2" max="14" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="9">
-        <v>41.25</v>
-      </c>
-      <c r="E2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="H2" s="9">
-        <v>29.375</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="L2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M2" s="9">
-        <v>20.625</v>
-      </c>
-      <c r="N2" s="9">
-        <v>11.875</v>
-      </c>
-      <c r="O2" s="9">
-        <v>26.25</v>
-      </c>
-      <c r="P2" s="9">
-        <v>14.375</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="R2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S2" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="T2" s="9">
-        <v>11.875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="9">
-        <v>41.25</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="H3" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="I3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K3" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="L3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M3" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="N3" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="O3" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="P3" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>14.375</v>
-      </c>
-      <c r="R3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S3" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="T3" s="9">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="D4" s="9">
-        <v>88.125</v>
-      </c>
-      <c r="E4" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="H4" s="9">
-        <v>79.375</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K4" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="L4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M4" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="N4" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="O4" s="9">
-        <v>94.375</v>
-      </c>
-      <c r="P4" s="9">
-        <v>38.125</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="R4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S4" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="T4" s="9">
-        <v>29.375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="D5" s="9">
-        <v>91.25</v>
-      </c>
-      <c r="E5" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="9">
-        <v>91.25</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K5" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="L5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M5" s="9">
-        <v>14.375</v>
-      </c>
-      <c r="N5" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="O5" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="P5" s="9">
-        <v>91.25</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="R5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S5" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="T5" s="9">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>94.375</v>
-      </c>
-      <c r="E6" s="9">
-        <v>91.25</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="H6" s="9">
-        <v>94.375</v>
-      </c>
-      <c r="I6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K6" s="9">
-        <v>32.5</v>
-      </c>
-      <c r="L6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="P6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="R6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="T6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="V6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D7" s="9">
-        <v>94.375</v>
-      </c>
-      <c r="E7" s="9">
-        <v>94.375</v>
-      </c>
-      <c r="F7" s="9">
-        <v>14.375</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="H7" s="9">
-        <v>91.25</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K7" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="P7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="R7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S7" s="11">
-        <v>97.5</v>
-      </c>
-      <c r="T7" s="11">
-        <v>14.375</v>
-      </c>
-      <c r="V7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="D8" s="9">
-        <v>20.625</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="H8" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K8" s="9">
-        <v>94.375</v>
-      </c>
-      <c r="L8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N8" s="9">
-        <v>79.375</v>
-      </c>
-      <c r="O8" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="P8" s="9">
-        <v>29.375</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="R8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S8" s="9">
-        <v>32.5</v>
-      </c>
-      <c r="T8" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9">
-        <v>40.5</v>
-      </c>
-      <c r="D9" s="9">
-        <v>47.5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="9">
-        <v>21.5</v>
-      </c>
-      <c r="H9" s="9">
-        <v>40.5</v>
-      </c>
-      <c r="I9" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J9" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K9" s="9">
-        <v>85.5</v>
-      </c>
-      <c r="L9" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M9" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N9" s="9">
-        <v>85.5</v>
-      </c>
-      <c r="O9" s="9">
-        <v>21.5</v>
-      </c>
-      <c r="P9" s="9">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>12</v>
-      </c>
-      <c r="R9" s="9">
-        <v>24</v>
-      </c>
-      <c r="S9" s="9">
-        <v>69</v>
-      </c>
-      <c r="T9" s="9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="D10" s="9">
-        <v>26.25</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="H10" s="9">
-        <v>10.833333333333334</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="L10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M10" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="N10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="P10" s="9">
-        <v>91.25</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="R10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S10" s="9">
-        <v>50</v>
-      </c>
-      <c r="T10" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="D11" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="H11" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="J11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="L11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M11" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="N11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="P11" s="9">
-        <v>94.375</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>29.375</v>
-      </c>
-      <c r="R11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S11" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="T11" s="9">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="D12" s="9">
-        <v>73.75</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="9">
-        <v>38.125</v>
-      </c>
-      <c r="H12" s="9">
-        <v>58.75</v>
-      </c>
-      <c r="I12" s="9">
-        <v>38.125</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="9">
-        <v>94.375</v>
-      </c>
-      <c r="L12" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M12" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="N12" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="O12" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="P12" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="R12" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="S12" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="T12" s="9">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D13" s="9">
-        <v>73.5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="9">
-        <v>19.5</v>
-      </c>
-      <c r="H13" s="9">
-        <v>73.5</v>
-      </c>
-      <c r="I13" s="9">
-        <v>36</v>
-      </c>
-      <c r="J13" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K13" s="9">
-        <v>87.5</v>
-      </c>
-      <c r="L13" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M13" s="9">
-        <v>54.5</v>
-      </c>
-      <c r="N13" s="9">
-        <v>71.5</v>
-      </c>
-      <c r="O13" s="9">
-        <v>85.5</v>
-      </c>
-      <c r="P13" s="9">
-        <v>26.5</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>5</v>
-      </c>
-      <c r="R13" s="9">
-        <v>10</v>
-      </c>
-      <c r="S13" s="9">
-        <v>85</v>
-      </c>
-      <c r="T13" s="9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="D14" s="9">
-        <v>79.375</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G14" s="9">
-        <v>29.375</v>
-      </c>
-      <c r="H14" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="I14" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="J14" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K14" s="9">
-        <v>41.25</v>
-      </c>
-      <c r="L14" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M14" s="9">
-        <v>55.625</v>
-      </c>
-      <c r="N14" s="9">
-        <v>70.625</v>
-      </c>
-      <c r="O14" s="9">
-        <v>79.375</v>
-      </c>
-      <c r="P14" s="9">
-        <v>61.875</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="R14" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S14" s="9">
-        <v>58.75</v>
-      </c>
-      <c r="T14" s="9">
-        <v>58.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9">
-        <v>71</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F15" s="9">
-        <v>5</v>
-      </c>
-      <c r="G15" s="9">
-        <v>24</v>
-      </c>
-      <c r="H15" s="9">
-        <v>80.5</v>
-      </c>
-      <c r="I15" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="J15" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K15" s="9">
-        <v>71</v>
-      </c>
-      <c r="L15" s="9">
-        <v>5</v>
-      </c>
-      <c r="M15" s="9">
-        <v>61.5</v>
-      </c>
-      <c r="N15" s="9">
-        <v>71</v>
-      </c>
-      <c r="O15" s="9">
-        <v>90</v>
-      </c>
-      <c r="P15" s="9">
-        <v>47.5</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="R15" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S15" s="9">
-        <v>64</v>
-      </c>
-      <c r="T15" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="D16" s="9">
-        <v>76.25</v>
-      </c>
-      <c r="E16" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G16" s="9">
-        <v>91.25</v>
-      </c>
-      <c r="H16" s="9">
-        <v>79.375</v>
-      </c>
-      <c r="I16" s="9">
-        <v>88.125</v>
-      </c>
-      <c r="J16" s="9">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="K16" s="9">
-        <v>61.875</v>
-      </c>
-      <c r="L16" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M16" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="N16" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="O16" s="9">
-        <v>85.625</v>
-      </c>
-      <c r="P16" s="9">
-        <v>61.875</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="R16" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S16" s="9">
-        <v>91.25</v>
-      </c>
-      <c r="T16" s="9">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9">
-        <v>80.5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>40.5</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>85.5</v>
-      </c>
-      <c r="H17" s="9">
-        <v>87.5</v>
-      </c>
-      <c r="I17" s="9">
-        <v>92.5</v>
-      </c>
-      <c r="J17" s="9">
-        <v>20.625</v>
-      </c>
-      <c r="K17" s="9">
-        <v>80.5</v>
-      </c>
-      <c r="L17" s="9">
-        <v>5</v>
-      </c>
-      <c r="M17" s="9">
-        <v>31</v>
-      </c>
-      <c r="N17" s="9">
-        <v>95</v>
-      </c>
-      <c r="O17" s="9">
-        <v>95</v>
-      </c>
-      <c r="P17" s="9">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>12</v>
-      </c>
-      <c r="R17" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="S17" s="9">
-        <v>97.5</v>
-      </c>
-      <c r="T17" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="9">
-        <v>32.5</v>
-      </c>
-      <c r="D18" s="9">
-        <v>41.25</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F18" s="9">
-        <v>14.375</v>
-      </c>
-      <c r="G18" s="9">
-        <v>50</v>
-      </c>
-      <c r="H18" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="I18" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="J18" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="K18" s="9">
-        <v>14.375</v>
-      </c>
-      <c r="L18" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M18" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N18" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="O18" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="P18" s="9">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="R18" s="9">
-        <v>5.625</v>
-      </c>
-      <c r="S18" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="T18" s="9">
-        <v>58.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9">
-        <v>50</v>
-      </c>
-      <c r="D19" s="9">
-        <v>43</v>
-      </c>
-      <c r="E19" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="F19" s="9">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9">
-        <v>71</v>
-      </c>
-      <c r="H19" s="9">
-        <v>28.5</v>
-      </c>
-      <c r="I19" s="9">
-        <v>64</v>
-      </c>
-      <c r="J19" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="K19" s="9">
-        <v>12</v>
-      </c>
-      <c r="L19" s="9">
-        <v>5</v>
-      </c>
-      <c r="M19" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N19" s="9">
-        <v>5</v>
-      </c>
-      <c r="O19" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="P19" s="9">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>43</v>
-      </c>
-      <c r="R19" s="9">
-        <v>24</v>
-      </c>
-      <c r="S19" s="9">
-        <v>50</v>
-      </c>
-      <c r="T19" s="9">
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="9">
-        <f t="shared" ref="C22:T22" si="0">(C2-C3)/MIN(C2,C3)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" si="0"/>
-        <v>2.3571428571428572</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.25</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="N22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="O22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="P22" s="9">
-        <f t="shared" si="0"/>
-        <v>1.5555555555555556</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.5555555555555556</v>
-      </c>
-      <c r="R22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="V22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="V23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="9">
-        <f t="shared" ref="C24:T24" si="1">(C4-C5)/MIN(C4,C5)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="1"/>
-        <v>-3.5460992907801421E-2</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="1"/>
-        <v>-0.14960629921259844</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="1"/>
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="N24" s="9">
-        <f t="shared" si="1"/>
-        <v>-0.55555555555555558</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="1"/>
-        <v>-3.3112582781456956E-2</v>
-      </c>
-      <c r="P24" s="9">
-        <f t="shared" si="1"/>
-        <v>-1.3934426229508197</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="14">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="T24" s="9">
-        <f t="shared" si="1"/>
-        <v>2.3571428571428572</v>
-      </c>
-      <c r="V24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="V25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9">
-        <f t="shared" ref="C26:T26" si="2">(C6-C7)/MIN(C6,C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="2"/>
-        <v>-3.4246575342465752E-2</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.5555555555555556</v>
-      </c>
-      <c r="G26" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.25</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="2"/>
-        <v>3.4246575342465752E-2</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <f t="shared" si="2"/>
-        <v>-1.0769230769230769</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="11">
-        <f t="shared" si="2"/>
-        <v>-4.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="9">
-        <f t="shared" ref="C28:T28" si="3">(C8-C9)/MIN(C8,C9)</f>
-        <v>-1.3142857142857143</v>
-      </c>
-      <c r="D28" s="9">
-        <f t="shared" si="3"/>
-        <v>-1.303030303030303</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
-        <f t="shared" si="3"/>
-        <v>-7.6</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="3"/>
-        <v>-1.3142857142857143</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" si="3"/>
-        <v>0.10380116959064327</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <f t="shared" si="3"/>
-        <v>-7.716535433070866E-2</v>
-      </c>
-      <c r="O28" s="11">
-        <f t="shared" si="3"/>
-        <v>-2.8222222222222224</v>
-      </c>
-      <c r="P28" s="9">
-        <f t="shared" si="3"/>
-        <v>-0.46382978723404256</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="shared" si="3"/>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="R28" s="13">
-        <f t="shared" si="3"/>
-        <v>-8.6</v>
-      </c>
-      <c r="S28" s="9">
-        <f t="shared" si="3"/>
-        <v>-1.1230769230769231</v>
-      </c>
-      <c r="T28" s="9">
-        <f t="shared" si="3"/>
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="9">
-        <f t="shared" ref="C30:T30" si="4">(C10-C11)/MIN(C10,C11)</f>
-        <v>2.1111111111111112</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <f t="shared" si="4"/>
-        <v>2.1111111111111112</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="4"/>
-        <v>0.92592592592592604</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="9">
-        <f t="shared" si="4"/>
-        <v>-3.4246575342465752E-2</v>
-      </c>
-      <c r="Q30" s="9">
-        <f t="shared" si="4"/>
-        <v>-0.6785714285714286</v>
-      </c>
-      <c r="R30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="9">
-        <f t="shared" si="4"/>
-        <v>-0.35</v>
-      </c>
-      <c r="T30" s="9">
-        <f t="shared" si="4"/>
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="9">
-        <f t="shared" ref="C32:T32" si="5">(C12-C13)/MIN(C12,C13)</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="D32" s="9">
-        <f t="shared" si="5"/>
-        <v>3.4013605442176869E-3</v>
-      </c>
-      <c r="E32" s="11">
-        <f t="shared" si="5"/>
-        <v>-4.8</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <f t="shared" si="5"/>
-        <v>0.95512820512820518</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.25106382978723402</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" si="5"/>
-        <v>5.9027777777777776E-2</v>
-      </c>
-      <c r="J32" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" si="5"/>
-        <v>7.857142857142857E-2</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="5"/>
-        <v>-2.1142857142857143</v>
-      </c>
-      <c r="N32" s="9">
-        <f t="shared" si="5"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O32" s="9">
-        <f t="shared" si="5"/>
-        <v>0.14035087719298245</v>
-      </c>
-      <c r="P32" s="9">
-        <f t="shared" si="5"/>
-        <v>1.5471698113207548</v>
-      </c>
-      <c r="Q32" s="9">
-        <f t="shared" si="5"/>
-        <v>0.125</v>
-      </c>
-      <c r="R32" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.77777777777777779</v>
-      </c>
-      <c r="S32" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.25925925925925924</v>
-      </c>
-      <c r="T32" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.96923076923076923</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="9">
-        <f t="shared" ref="C34:T34" si="6">(C14-C15)/MIN(C14,C15)</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D34" s="9">
-        <f t="shared" si="6"/>
-        <v>0.11795774647887323</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="G34" s="9">
-        <f t="shared" si="6"/>
-        <v>0.22395833333333334</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="shared" si="6"/>
-        <v>-0.19259259259259259</v>
-      </c>
-      <c r="I34" s="9">
-        <f t="shared" si="6"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="J34" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" si="6"/>
-        <v>-0.72121212121212119</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="shared" si="6"/>
-        <v>-0.10561797752808989</v>
-      </c>
-      <c r="N34" s="9">
-        <f t="shared" si="6"/>
-        <v>-5.3097345132743362E-3</v>
-      </c>
-      <c r="O34" s="9">
-        <f t="shared" si="6"/>
-        <v>-0.13385826771653545</v>
-      </c>
-      <c r="P34" s="9">
-        <f t="shared" si="6"/>
-        <v>0.30263157894736842</v>
-      </c>
-      <c r="Q34" s="9">
-        <f t="shared" si="6"/>
-        <v>1.25</v>
-      </c>
-      <c r="R34" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <f t="shared" si="6"/>
-        <v>-8.9361702127659579E-2</v>
-      </c>
-      <c r="T34" s="9">
-        <f t="shared" si="6"/>
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="9">
-        <f t="shared" ref="C36:T36" si="7">(C16-C17)/MIN(C16,C17)</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D36" s="9">
-        <f t="shared" si="7"/>
-        <v>-5.5737704918032788E-2</v>
-      </c>
-      <c r="E36" s="13">
-        <f t="shared" si="7"/>
-        <v>-6.2</v>
-      </c>
-      <c r="F36" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <f t="shared" si="7"/>
-        <v>6.725146198830409E-2</v>
-      </c>
-      <c r="H36" s="9">
-        <f t="shared" si="7"/>
-        <v>-0.10236220472440945</v>
-      </c>
-      <c r="I36" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.9645390070921988E-2</v>
-      </c>
-      <c r="J36" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.0937499999999996</v>
-      </c>
-      <c r="K36" s="9">
-        <f t="shared" si="7"/>
-        <v>-0.30101010101010101</v>
-      </c>
-      <c r="L36" s="9">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="M36" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.5428571428571427</v>
-      </c>
-      <c r="N36" s="9">
-        <f t="shared" si="7"/>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="O36" s="9">
-        <f t="shared" si="7"/>
-        <v>-0.10948905109489052</v>
-      </c>
-      <c r="P36" s="9">
-        <f t="shared" si="7"/>
-        <v>0.43895348837209303</v>
-      </c>
-      <c r="Q36" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.1333333333333333</v>
-      </c>
-      <c r="R36" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="9">
-        <f t="shared" si="7"/>
-        <v>-6.8493150684931503E-2</v>
-      </c>
-      <c r="T36" s="9">
-        <f t="shared" si="7"/>
-        <v>-0.15151515151515152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="9">
-        <f t="shared" ref="C38:T38" si="8">(C18-C19)/MIN(C18,C19)</f>
-        <v>-0.53846153846153844</v>
-      </c>
-      <c r="D38" s="9">
-        <f t="shared" si="8"/>
-        <v>-4.2424242424242427E-2</v>
-      </c>
-      <c r="E38" s="9">
-        <f t="shared" si="8"/>
-        <v>-2</v>
-      </c>
-      <c r="F38" s="9">
-        <f t="shared" si="8"/>
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="G38" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.42</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.62857142857142856</v>
-      </c>
-      <c r="I38" s="9">
-        <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
-      </c>
-      <c r="J38" s="9">
-        <f t="shared" si="8"/>
-        <v>-1.5777777777777777</v>
-      </c>
-      <c r="K38" s="9">
-        <f t="shared" si="8"/>
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="L38" s="9">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="M38" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <f t="shared" si="8"/>
-        <v>0.125</v>
-      </c>
-      <c r="O38" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="9">
-        <f t="shared" si="8"/>
-        <v>0.16279069767441862</v>
-      </c>
-      <c r="Q38" s="9">
-        <f t="shared" si="8"/>
-        <v>-1.4571428571428571</v>
-      </c>
-      <c r="R38" s="11">
-        <f t="shared" si="8"/>
-        <v>-3.2666666666666666</v>
-      </c>
-      <c r="S38" s="9">
-        <f t="shared" si="8"/>
-        <v>0.35</v>
-      </c>
-      <c r="T38" s="9">
-        <f t="shared" si="8"/>
-        <v>-0.2978723404255319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V28">
-    <sortCondition ref="A2:A28"/>
-    <sortCondition ref="B2:B28"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4093C6FB-70C7-41A8-BE37-5FAF15BCD8C5}">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7558,72 +5163,72 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0.14583333333333334</v>
@@ -7691,7 +5296,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.93333333333333324</v>
@@ -7759,7 +5364,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>2.5000000000000001E-2</v>
@@ -7827,7 +5432,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4.583333333333333E-2</v>
@@ -7895,7 +5500,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>0.36249999999999999</v>
@@ -7963,7 +5568,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -8031,7 +5636,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>2.5000000000000001E-2</v>
@@ -8099,7 +5704,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0.05</v>
@@ -8167,7 +5772,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.26500000000000001</v>
@@ -8235,7 +5840,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>0.47499999999999998</v>
@@ -8303,7 +5908,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0.33500000000000002</v>
@@ -8371,7 +5976,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>2.5000000000000001E-2</v>
@@ -8439,7 +6044,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B14">
         <v>7.4999999999999997E-2</v>
@@ -8506,8 +6111,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>41</v>
+      <c r="A15" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B15">
         <v>0.24</v>
@@ -8575,7 +6180,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0.66500000000000004</v>
@@ -8643,7 +6248,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>0.85416666666666674</v>
@@ -8715,7 +6320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECF873-DDB1-4538-A7E7-DE42FFC76584}">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -8735,1237 +6340,1237 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="S1" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="15">
+        <v>86</v>
+      </c>
+      <c r="B2" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <v>0.91249999999999998</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>0.88124999999999998</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="11">
         <v>0.55625000000000002</v>
       </c>
-      <c r="I2" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J2" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K2" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="I2" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L2" s="11">
         <v>0.55625000000000002</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="11">
         <v>0.35</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="11">
         <v>0.70625000000000004</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="11">
         <v>0.53125</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="11">
         <v>0.88124999999999998</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="11">
         <v>0.23749999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="15">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.38124999999999998</v>
       </c>
-      <c r="C3" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="D3" s="11">
         <v>0.79374999999999996</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>0.88124999999999998</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>0.5</v>
       </c>
-      <c r="H3" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="H3" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="I3" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="J3" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K3" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="J3" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L3" s="11">
         <v>0.46875</v>
       </c>
-      <c r="M3" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N3" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="O3" s="15">
+      <c r="M3" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="O3" s="11">
         <v>0.20624999999999999</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="11">
         <v>0.97499999999999998</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="11">
         <v>0.70625000000000004</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="11">
         <v>0.85</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="11">
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="15">
+        <v>87</v>
+      </c>
+      <c r="B4" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>0.41249999999999998</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>0.5</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>0.41249999999999998</v>
       </c>
-      <c r="F4" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="F4" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G4" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>0.70625000000000004</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>0.29375000000000001</v>
       </c>
-      <c r="K4" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L4" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M4" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N4" s="15">
+      <c r="K4" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N4" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="O4" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P4" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R4" s="15">
+      <c r="O4" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P4" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R4" s="11">
         <v>0.53125</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="11">
         <v>0.79374999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="C5" s="15">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="C5" s="11">
         <v>0.91249999999999998</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>0.5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>0.45833333333333337</v>
       </c>
-      <c r="H5" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I5" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="J5" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K5" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="H5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L5" s="11">
         <v>0.29375000000000001</v>
       </c>
-      <c r="M5" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N5" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O5" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P5" s="15">
+      <c r="M5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P5" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="11">
         <v>0.70625000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="15">
+        <v>88</v>
+      </c>
+      <c r="B6" s="11">
         <v>0.91249999999999998</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>0.26250000000000001</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>0.79374999999999996</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>0.38124999999999998</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="H6" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I6" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H6" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="J6" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="K6" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L6" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M6" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N6" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="O6" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="K6" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M6" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P6" s="11">
         <v>0.23749999999999999</v>
       </c>
-      <c r="Q6" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R6" s="15">
+      <c r="Q6" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R6" s="11">
         <v>0.20624999999999999</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="11">
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="15">
+        <v>89</v>
+      </c>
+      <c r="B7" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>0.38124999999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>0.23749999999999999</v>
       </c>
-      <c r="F7" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="H7" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="I7" s="15">
+      <c r="F7" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="I7" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="J7" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="K7" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L7" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M7" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N7" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="O7" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P7" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R7" s="15">
+      <c r="J7" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N7" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P7" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R7" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="11">
         <v>0.79374999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D8" s="15">
+        <v>90</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D8" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>0.11874999999999999</v>
       </c>
-      <c r="F8" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G8" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I8" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="J8" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="F8" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="K8" s="11">
         <v>0.79374999999999996</v>
       </c>
-      <c r="L8" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="M8" s="15">
+      <c r="L8" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="M8" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="11">
         <v>0.91249999999999998</v>
       </c>
-      <c r="P8" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Q8" s="15">
+      <c r="P8" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q8" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="11">
         <v>0.23749999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="D9" s="15">
+        <v>91</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="D9" s="11">
         <v>0.70625000000000004</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>0.61875000000000002</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="H9" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I9" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J9" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K9" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L9" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M9" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N9" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="O9" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P9" s="15">
+      <c r="H9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N9" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="O9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P9" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="Q9" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R9" s="15">
+      <c r="Q9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R9" s="11">
         <v>0.79374999999999996</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="11">
         <v>0.26250000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C10" s="15">
+        <v>92</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C10" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>0.5</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <v>0.38124999999999998</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>0.29375000000000001</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="11">
         <v>0.11874999999999999</v>
       </c>
-      <c r="I10" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J10" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="I10" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K10" s="11">
         <v>0.41249999999999998</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="11">
         <v>0.91249999999999998</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="11">
         <v>0.20624999999999999</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="11">
         <v>0.29375000000000001</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="11">
         <v>0.20624999999999999</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="11">
         <v>0.20624999999999999</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="11">
         <v>0.70625000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D11" s="15">
+        <v>93</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D11" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>0.5</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K11" s="15">
+      <c r="G11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K11" s="11">
         <v>0.41249999999999998</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="11">
         <v>0.88124999999999998</v>
       </c>
-      <c r="M11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O11" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P11" s="15">
+      <c r="M11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P11" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="Q11" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="R11" s="15">
+      <c r="Q11" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="R11" s="11">
         <v>0.20624999999999999</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="11">
         <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C12" s="15">
+        <v>94</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C12" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>0.29375000000000001</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="F12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="F12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K12" s="11">
         <v>0.97499999999999998</v>
       </c>
-      <c r="L12" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="M12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O12" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P12" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="R12" s="15">
+      <c r="L12" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="M12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P12" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="R12" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="11">
         <v>0.35</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="15">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11">
         <v>0.26250000000000001</v>
       </c>
-      <c r="C13" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D13" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>0.46875</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <v>0.29375000000000001</v>
       </c>
-      <c r="H13" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I13" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="J13" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K13" s="15">
+      <c r="H13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K13" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="L13" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M13" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N13" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O13" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P13" s="15">
+      <c r="L13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P13" s="11">
         <v>0.45833333333333337</v>
       </c>
-      <c r="Q13" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R13" s="15">
+      <c r="Q13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R13" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="11">
         <v>0.26250000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C14" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="D14" s="15">
+        <v>95</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="D14" s="11">
         <v>0.5</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>0.5</v>
       </c>
-      <c r="F14" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="F14" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G14" s="11">
         <v>0.91249999999999998</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <v>0.85</v>
       </c>
-      <c r="I14" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J14" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K14" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="I14" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K14" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L14" s="11">
         <v>0.29375000000000001</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="11">
         <v>0.76249999999999996</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="Q14" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R14" s="15">
+      <c r="Q14" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R14" s="11">
         <v>0.5</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="11">
         <v>0.58750000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C15" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D15" s="15">
+        <v>96</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D15" s="11">
         <v>0.5</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F15" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="F15" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G15" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="I15" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J15" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K15" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="I15" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L15" s="11">
         <v>0.41249999999999998</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="11">
         <v>0.79374999999999996</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="11">
         <v>0.38124999999999998</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="11">
         <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C16" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D16" s="15">
+        <v>100</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="11">
         <v>0.41249999999999998</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>0.5</v>
       </c>
-      <c r="F16" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="F16" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G16" s="11">
         <v>0.76249999999999996</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I16" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J16" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K16" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="I16" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L16" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="11">
         <v>0.79374999999999996</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="Q16" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="R16" s="15">
+      <c r="Q16" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="R16" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="11">
         <v>0.20624999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D17" s="15">
+        <v>97</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17" s="11">
         <v>0.41249999999999998</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>0.70625000000000004</v>
       </c>
-      <c r="F17" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="F17" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="G17" s="11">
         <v>0.76249999999999996</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <v>0.61875000000000002</v>
       </c>
-      <c r="I17" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J17" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K17" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="I17" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L17" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="M17" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="N17" s="15">
+      <c r="M17" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="N17" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="11">
         <v>0.20624999999999999</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="11">
         <v>0.79374999999999996</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="11">
         <v>0.15</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="11">
         <v>0.11874999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C18" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D18" s="15">
+        <v>98</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="11">
         <v>0.41249999999999998</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="F18" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="F18" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="G18" s="11">
         <v>0.76249999999999996</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="I18" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J18" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K18" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="I18" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J18" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L18" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="N18" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O18" s="15">
+      <c r="N18" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O18" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="11">
         <v>0.70625000000000004</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="11">
         <v>0.70625000000000004</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S18" s="11">
         <v>0.41249999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="C19" s="15">
+        <v>99</v>
+      </c>
+      <c r="B19" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="C19" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>0.88124999999999998</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>0.38124999999999998</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <v>0.85624999999999996</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H19" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I19" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J19" s="15">
+      <c r="H19" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I19" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J19" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="K19" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L19" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M19" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N19" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O19" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="P19" s="15">
+      <c r="K19" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L19" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N19" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O19" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="P19" s="11">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="Q19" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R19" s="15">
+      <c r="Q19" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R19" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="11">
         <v>0.26250000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C20" s="15">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C20" s="11">
         <v>0.91249999999999998</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <v>0.38124999999999998</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>0.5</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <v>0.38124999999999998</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H20" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="I20" s="15">
+      <c r="H20" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="I20" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="J20" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K20" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L20" s="15">
+      <c r="J20" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K20" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L20" s="11">
         <v>0.46875</v>
       </c>
-      <c r="M20" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N20" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="O20" s="15">
+      <c r="M20" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N20" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="O20" s="11">
         <v>0.14374999999999999</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="Q20" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="R20" s="15">
+      <c r="Q20" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="R20" s="11">
         <v>0.79374999999999996</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="11">
         <v>0.79374999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="15">
+        <v>42</v>
+      </c>
+      <c r="B21" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>0.58750000000000002</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>0.5</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <v>0.85624999999999996</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>0.5</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="11">
         <v>0.97499999999999998</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="11">
         <v>0.97499999999999998</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="11">
         <v>0.82499999999999996</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="11">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="11">
         <v>0.91249999999999998</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="11">
         <v>0.94374999999999998</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="11">
         <v>0.67500000000000004</v>
       </c>
     </row>
@@ -9975,7 +7580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -9994,63 +7599,63 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="S1" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9">
         <v>8.7499999999999994E-2</v>
@@ -10109,7 +7714,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B3" s="9">
         <v>0.67500000000000004</v>
@@ -10168,7 +7773,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9">
         <v>6.6666666666666666E-2</v>
@@ -10227,7 +7832,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9">
         <v>0.61875000000000002</v>
@@ -10286,7 +7891,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B6" s="9">
         <v>0.5</v>
@@ -10345,7 +7950,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B7" s="9">
         <v>5.6250000000000001E-2</v>
@@ -10404,7 +8009,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B8" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10463,7 +8068,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B9" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10522,7 +8127,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="9">
         <v>0.22500000000000001</v>
@@ -10581,7 +8186,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B11" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10640,7 +8245,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B12" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10699,7 +8304,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B13" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10758,7 +8363,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B14" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10817,7 +8422,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B15" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10876,7 +8481,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B16" s="9">
         <v>5.6250000000000001E-2</v>
@@ -10935,7 +8540,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9">
         <v>2.5000000000000001E-2</v>
@@ -10994,7 +8599,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9">
         <v>0.95937499999999998</v>
@@ -11057,12 +8662,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEAA06E-F330-4153-A681-769C8DA29C30}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11074,376 +8679,376 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>119</v>
+        <v>79</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>121</v>
+        <v>81</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>122</v>
+        <v>82</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>123</v>
+        <v>83</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -11462,12 +9067,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500D00D8-B9C2-4429-B601-4DF88188BD3F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11479,167 +9084,385 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5241CE2-746E-4D41-B8AB-B98FD964D1A9}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demkn\PycharmProjects\dissertation-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B481939C-D02C-4AB1-9AA5-FBD752BC6195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3936D4-FE78-4F61-8DC0-FBD0C94CFC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1305" windowWidth="23805" windowHeight="14175" tabRatio="684" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29790" yWindow="1185" windowWidth="23805" windowHeight="14175" tabRatio="684" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cattle" sheetId="12" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="188">
   <si>
     <t>Diarrhoea</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Lymph Node enlargement</t>
-  </si>
-  <si>
-    <t>zz_Other</t>
   </si>
   <si>
     <t>Anae</t>
@@ -1223,49 +1220,49 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2020,7 +2017,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>0.79379999999999995</v>
@@ -2093,200 +2090,200 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2311,233 +2308,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2562,200 +2559,200 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2780,200 +2777,200 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2985,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B79A8A-1D7B-4FD1-8C3C-2C5F3A1811C5}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,10 +2994,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,15 +3005,15 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3029,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,15 +3037,15 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3053,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3061,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3069,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3077,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3093,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,31 +3109,31 @@
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,31 +3141,31 @@
         <v>31</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3176,7 +3173,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,31 +3181,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3216,7 +3213,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,7 +3221,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,7 +3229,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,7 +3237,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,16 +3245,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3262,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,15 +3270,15 @@
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,47 +3286,47 @@
         <v>25</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,23 +3334,23 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3358,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,7 +3366,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,7 +3374,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +3393,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,58 +3408,58 @@
         <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3762,7 +3759,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="10">
         <v>2.5000000000000001E-2</v>
@@ -4234,7 +4231,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B15" s="10">
         <v>0.92500000000000004</v>
@@ -4302,7 +4299,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,58 +4313,58 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4608,7 +4605,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>2.5000000000000001E-2</v>
@@ -5080,7 +5077,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B14">
         <v>0.91249999999999998</v>
@@ -5148,7 +5145,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5163,67 +5160,67 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -5364,7 +5361,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>2.5000000000000001E-2</v>
@@ -5500,7 +5497,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>0.36249999999999999</v>
@@ -5568,7 +5565,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -5840,7 +5837,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>0.47499999999999998</v>
@@ -5976,7 +5973,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>2.5000000000000001E-2</v>
@@ -6044,7 +6041,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>7.4999999999999997E-2</v>
@@ -6248,7 +6245,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>0.85416666666666674</v>
@@ -6325,7 +6322,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6340,63 +6337,63 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="11">
         <v>0.14374999999999999</v>
@@ -6514,7 +6511,7 @@
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="11">
         <v>0.67500000000000004</v>
@@ -6632,7 +6629,7 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="11">
         <v>0.91249999999999998</v>
@@ -6691,7 +6688,7 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="11">
         <v>0.58750000000000002</v>
@@ -6750,7 +6747,7 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="11">
         <v>5.6250000000000001E-2</v>
@@ -6809,7 +6806,7 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="11">
         <v>5.6250000000000001E-2</v>
@@ -6868,7 +6865,7 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="11">
         <v>2.5000000000000001E-2</v>
@@ -6927,7 +6924,7 @@
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="11">
         <v>2.5000000000000001E-2</v>
@@ -6986,7 +6983,7 @@
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="11">
         <v>2.5000000000000001E-2</v>
@@ -7104,7 +7101,7 @@
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="11">
         <v>2.5000000000000001E-2</v>
@@ -7163,7 +7160,7 @@
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="11">
         <v>2.5000000000000001E-2</v>
@@ -7222,7 +7219,7 @@
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="11">
         <v>2.5000000000000001E-2</v>
@@ -7281,7 +7278,7 @@
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="11">
         <v>2.5000000000000001E-2</v>
@@ -7340,7 +7337,7 @@
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="11">
         <v>2.5000000000000001E-2</v>
@@ -7399,7 +7396,7 @@
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="11">
         <v>5.6250000000000001E-2</v>
@@ -7517,7 +7514,7 @@
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B21" s="11">
         <v>0.94374999999999998</v>
@@ -7584,8 +7581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7599,58 +7596,58 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -7714,7 +7711,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9">
         <v>0.67500000000000004</v>
@@ -7832,7 +7829,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="9">
         <v>0.61875000000000002</v>
@@ -7891,7 +7888,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="9">
         <v>0.5</v>
@@ -7950,7 +7947,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="9">
         <v>5.6250000000000001E-2</v>
@@ -8009,7 +8006,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="9">
         <v>2.5000000000000001E-2</v>
@@ -8068,7 +8065,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="9">
         <v>2.5000000000000001E-2</v>
@@ -8186,7 +8183,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="9">
         <v>2.5000000000000001E-2</v>
@@ -8245,7 +8242,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="9">
         <v>2.5000000000000001E-2</v>
@@ -8304,7 +8301,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="9">
         <v>2.5000000000000001E-2</v>
@@ -8363,7 +8360,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="9">
         <v>2.5000000000000001E-2</v>
@@ -8422,7 +8419,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="9">
         <v>2.5000000000000001E-2</v>
@@ -8481,7 +8478,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="9">
         <v>5.6250000000000001E-2</v>
@@ -8599,7 +8596,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B18" s="9">
         <v>0.95937499999999998</v>
@@ -8679,376 +8676,376 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9071,7 +9068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500D00D8-B9C2-4429-B601-4DF88188BD3F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -9084,167 +9081,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -9269,200 +9266,200 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
